--- a/cours/modules/R403/src/valeurs.xlsx
+++ b/cours/modules/R403/src/valeurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\Depots\import-cours-but-rt\cours\modules\R403\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301A0146-CD83-4F07-BAC0-E4BD9E699652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AFEB60-221A-4399-B8C8-EA478AD4BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F9AE8F4-0614-4D39-8ED9-B69AA61B6702}"/>
   </bookViews>
